--- a/output/0/tRNA-Phe-GAA-1-4.xlsx
+++ b/output/0/tRNA-Phe-GAA-1-4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="68">
   <si>
     <t>chr12</t>
   </si>
@@ -216,51 +216,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>125412743</t>
-  </si>
-  <si>
-    <t>125412766</t>
-  </si>
-  <si>
-    <t>125412746</t>
-  </si>
-  <si>
-    <t>AGGCACTGTTCTAGGTACTG</t>
-  </si>
-  <si>
-    <t>92% (65)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>125412751</t>
-  </si>
-  <si>
-    <t>125412774</t>
-  </si>
-  <si>
-    <t>125412754</t>
-  </si>
-  <si>
-    <t>AATGTGCTAGGCACTGTTCT</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>65</t>
   </si>
 </sst>
 </file>
@@ -305,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1255,124 +1210,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
